--- a/biology/Botanique/Parque_Olímpico_de_la_Juventud/Parque_Olímpico_de_la_Juventud.xlsx
+++ b/biology/Botanique/Parque_Olímpico_de_la_Juventud/Parque_Olímpico_de_la_Juventud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parque_Ol%C3%ADmpico_de_la_Juventud</t>
+          <t>Parque_Olímpico_de_la_Juventud</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Parque Olímpico de la Juventud, ancien Parque Polideportivo Roca est un parc sportif de Buenos Aires, situé dans le barrio de Villa Soldati, le long du Riachuelo.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque_Ol%C3%ADmpico_de_la_Juventud</t>
+          <t>Parque_Olímpico_de_la_Juventud</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Créé en 1978 par la municipalité de Buenos Aires dans la vieille Quinta del Molino (une propriété avec un moulin à eau), il devient, en 2006, le parc des amateurs de tennis, avec la construction du stade Mary Terán de Weiss, ainsi dénommé pour la première joueuse de tennis argentine de renommée internationale.
 Quasiment à l'état d'abandon en 2016, il est choisi tardivement pour une rénovation complète afin de pouvoir y accueillir les Jeux olympiques de la jeunesse de 2018, et notamment 14 sports sur 32 au total.
